--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VideoLingo\VideoLingo\batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VideoLingo\VideoLingoMove\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC255C2F-C235-44F6-964A-4589E9BB051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31217D5-9DF0-4E29-B6A7-BC75833A3333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="20520" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="9105" windowWidth="20520" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Video File</t>
   </si>
@@ -47,37 +36,17 @@
   <si>
     <t>Status</t>
   </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 - Create slots.mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 - Create curves.mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 - Create ellipses.mp4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,17 +54,9 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -137,26 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,121 +405,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="3" width="22.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>